--- a/datas/ParameterSortiert.xlsx
+++ b/datas/ParameterSortiert.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Thesis\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8318E89-F4E0-4C55-8EBD-6B730A850029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90602244-FA98-445A-B709-0A085186EB7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{E1B146B1-EDED-4082-8C9C-CB1E0E5FFF97}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1B146B1-EDED-4082-8C9C-CB1E0E5FFF97}"/>
   </bookViews>
   <sheets>
     <sheet name="F1M2C1" sheetId="1" r:id="rId1"/>
@@ -520,11 +520,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FE6E37-0452-4C86-9300-A0953335C69D}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="24.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -574,49 +577,49 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>500</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H2" s="2">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="A2" s="3">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>500</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H2" s="3">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.80000001192092896</v>
       </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3">
         <v>881.79998779296875</v>
       </c>
     </row>
@@ -655,63 +658,63 @@
         <v>2</v>
       </c>
       <c r="L3" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>14</v>
+      </c>
+      <c r="O3" s="3">
+        <v>879.79998779296875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.80000001192092896</v>
       </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3">
-        <v>881.79998779296875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H4" s="3">
-        <v>50</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>14</v>
-      </c>
-      <c r="O4" s="3">
-        <v>879.79998779296875</v>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.9999997019767761E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1">
+        <v>879.65997314453125</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -743,69 +746,69 @@
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>0.60000002384185791</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="K5" s="3">
         <v>2</v>
       </c>
       <c r="L5" s="3">
-        <v>0.60000002384185791</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O5" s="3">
-        <v>875.4000244140625</v>
+        <v>873.4000244140625</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
-        <v>500</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H6" s="3">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3">
-        <v>7</v>
-      </c>
-      <c r="O6" s="3">
-        <v>875.20001220703125</v>
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>868.78009033203125</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -837,304 +840,304 @@
         <v>1</v>
       </c>
       <c r="J7" s="3">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
         <v>0.20000000298023224</v>
       </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3">
+        <v>868.0400390625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>0.80000001192092896</v>
       </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>16</v>
-      </c>
-      <c r="O7" s="3">
-        <v>874.4000244140625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>500</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H8" s="3">
-        <v>50</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2.9999999329447746E-2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>867.67999267578125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>0.80000001192092896</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>6</v>
-      </c>
-      <c r="O8" s="3">
-        <v>874.4000244140625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>500</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H9" s="3">
-        <v>50</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1.9999999552965164E-2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>46</v>
+      </c>
+      <c r="O9">
+        <v>864.8800048828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0.80000001192092896</v>
       </c>
-      <c r="K9" s="3">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>13</v>
-      </c>
-      <c r="O9" s="3">
-        <v>873.4000244140625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>500</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H10" s="3">
-        <v>50</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3">
-        <v>16</v>
-      </c>
-      <c r="O10" s="3">
-        <v>872.8599853515625</v>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>47</v>
+      </c>
+      <c r="O10">
+        <v>855.06005859375</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3">
-        <v>500</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H11" s="3">
-        <v>50</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3">
-        <v>19</v>
-      </c>
-      <c r="O11" s="3">
-        <v>872.4000244140625</v>
+      <c r="A11" s="5">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>500</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>25</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H11" s="5">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>12</v>
+      </c>
+      <c r="O11" s="5">
+        <v>782.4798583984375</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3">
-        <v>500</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H12" s="3">
-        <v>50</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3">
-        <v>13</v>
-      </c>
-      <c r="O12" s="3">
-        <v>872</v>
+      <c r="A12" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>10</v>
+      </c>
+      <c r="O12" s="2">
+        <v>881.79998779296875</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3">
-        <v>500</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H13" s="3">
-        <v>50</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="K13" s="3">
-        <v>2</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>9</v>
-      </c>
-      <c r="O13" s="3">
-        <v>871.5999755859375</v>
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>38</v>
+      </c>
+      <c r="O13">
+        <v>877.20001220703125</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1172,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="L14" s="3">
-        <v>0.40000000596046448</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="M14" s="3">
         <v>1</v>
@@ -1181,101 +1184,101 @@
         <v>10</v>
       </c>
       <c r="O14" s="3">
-        <v>871.4000244140625</v>
+        <v>875.4000244140625</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6">
-        <v>500</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6">
-        <v>25</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H15" s="6">
-        <v>50</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="K15" s="6">
-        <v>2</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
-        <v>21</v>
-      </c>
-      <c r="O15" s="6">
-        <v>869.20001220703125</v>
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2.9999999329447746E-2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>45</v>
+      </c>
+      <c r="O15">
+        <v>872.9200439453125</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3">
-        <v>500</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H16" s="3">
-        <v>50</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3">
-        <v>17</v>
-      </c>
-      <c r="O16" s="3">
-        <v>868.0400390625</v>
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>4.9999997019767761E-2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>35</v>
+      </c>
+      <c r="O16">
+        <v>872.4000244140625</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1307,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0.40000000596046448</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
@@ -1319,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O17" s="3">
-        <v>865.5999755859375</v>
+        <v>872.4000244140625</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1354,492 +1357,492 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3">
+        <v>871.4000244140625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>43</v>
+      </c>
+      <c r="O19">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1.9999999552965164E-2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <v>860.47998046875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>25</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H21" s="5">
+        <v>50</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
-        <v>2</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
+        <v>11</v>
+      </c>
+      <c r="O21" s="5">
+        <v>778.81982421875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>500</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H22" s="3">
+        <v>50</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>7</v>
+      </c>
+      <c r="O22" s="3">
+        <v>875.20001220703125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>500</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H23" s="3">
+        <v>50</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
         <v>0.80000001192092896</v>
       </c>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3">
-        <v>500</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H19" s="3">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
-        <v>2</v>
-      </c>
-      <c r="O19" s="3">
-        <v>854.0400390625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3">
-        <v>500</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
-        <v>25</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H20" s="3">
-        <v>50</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <v>6</v>
+      </c>
+      <c r="O23" s="3">
+        <v>874.4000244140625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H24" s="3">
+        <v>50</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
         <v>0.40000000596046448</v>
       </c>
-      <c r="M20" s="3">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
-        <v>846.5198974609375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>500</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H21" s="3">
-        <v>50</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K24" s="3">
+        <v>2</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9</v>
+      </c>
+      <c r="O24" s="3">
+        <v>871.5999755859375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>4.9999997019767761E-2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <v>871.4400634765625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>36</v>
+      </c>
+      <c r="O26">
+        <v>867.24005126953125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2.9999999329447746E-2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>41</v>
+      </c>
+      <c r="O27">
+        <v>866.24005126953125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H28" s="3">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
         <v>0.20000000298023224</v>
       </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
-        <v>842.24005126953125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <v>20</v>
-      </c>
-      <c r="C22" s="5">
-        <v>500</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5">
-        <v>25</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H22" s="5">
-        <v>50</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="K22" s="5">
-        <v>2</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <v>11</v>
-      </c>
-      <c r="O22" s="5">
-        <v>782.9598388671875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5">
-        <v>500</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H23" s="5">
-        <v>50</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K23" s="5">
-        <v>2</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5">
-        <v>12</v>
-      </c>
-      <c r="O23" s="5">
-        <v>782.4798583984375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5">
-        <v>500</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H24" s="5">
-        <v>50</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="K24" s="5">
-        <v>2</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <v>13</v>
-      </c>
-      <c r="O24" s="5">
-        <v>781.71990966796875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5">
-        <v>20</v>
-      </c>
-      <c r="C25" s="5">
-        <v>500</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5">
-        <v>25</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H25" s="5">
-        <v>50</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="K25" s="5">
-        <v>2</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5">
-        <v>11</v>
-      </c>
-      <c r="O25" s="5">
-        <v>778.81982421875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>20</v>
-      </c>
-      <c r="B26" s="5">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5">
-        <v>500</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5">
-        <v>25</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H26" s="5">
-        <v>50</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>2</v>
-      </c>
-      <c r="L26" s="5">
-        <v>0</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5">
-        <v>763.8199462890625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1">
-        <v>500</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H27" s="1">
-        <v>50</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1">
-        <v>4.9999997019767761E-2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>40</v>
-      </c>
-      <c r="O27" s="1">
-        <v>879.65997314453125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H28">
-        <v>50</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>38</v>
-      </c>
-      <c r="O28">
-        <v>877.20001220703125</v>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>17</v>
+      </c>
+      <c r="O28" s="3">
+        <v>865.5999755859375</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -1871,22 +1874,22 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.60000002384185791</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>2.9999999329447746E-2</v>
+        <v>1.9999999552965164E-2</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O29">
-        <v>872.9200439453125</v>
+        <v>865.52001953125</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -1918,163 +1921,163 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.60000002384185791</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30">
-        <v>4.9999997019767761E-2</v>
+        <v>9.9999997764825821E-3</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O30">
-        <v>872.4000244140625</v>
+        <v>857.25994873046875</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>500</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H31">
-        <v>50</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
+      <c r="A31" s="5">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>500</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>25</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H31" s="5">
+        <v>50</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5">
+        <v>11</v>
+      </c>
+      <c r="O31" s="5">
+        <v>782.9598388671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
+        <v>500</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
         <v>0.20000000298023224</v>
       </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>37</v>
-      </c>
-      <c r="O31">
-        <v>872.1199951171875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>500</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H32">
-        <v>50</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
+      <c r="K32" s="3">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <v>16</v>
+      </c>
+      <c r="O32" s="3">
+        <v>874.4000244140625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3">
+        <v>500</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3">
+        <v>25</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H33" s="3">
+        <v>50</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3">
         <v>0.40000000596046448</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>4.9999997019767761E-2</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>35</v>
-      </c>
-      <c r="O32">
-        <v>871.4400634765625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>20</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>500</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-      <c r="G33">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H33">
-        <v>50</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>31</v>
-      </c>
-      <c r="O33">
-        <v>868.78009033203125</v>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>16</v>
+      </c>
+      <c r="O33" s="3">
+        <v>872.8599853515625</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -2112,110 +2115,110 @@
         <v>2</v>
       </c>
       <c r="L34">
-        <v>3.9999999105930328E-2</v>
+        <v>1.9999999552965164E-2</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O34">
-        <v>867.84002685546875</v>
+        <v>872.1199951171875</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>20</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>500</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>46</v>
-      </c>
-      <c r="O35">
-        <v>867.67999267578125</v>
+      <c r="A35" s="3">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3">
+        <v>500</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
+        <v>25</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H35" s="3">
+        <v>50</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3">
+        <v>13</v>
+      </c>
+      <c r="O35" s="3">
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>500</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>25</v>
-      </c>
-      <c r="G36">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H36">
-        <v>50</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
+      <c r="A36" s="6">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6">
+        <v>500</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3</v>
+      </c>
+      <c r="F36" s="6">
+        <v>25</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H36" s="6">
+        <v>50</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
         <v>0.20000000298023224</v>
       </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>34</v>
-      </c>
-      <c r="O36">
-        <v>867.4000244140625</v>
+      <c r="K36" s="6">
+        <v>2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1</v>
+      </c>
+      <c r="N36" s="6">
+        <v>21</v>
+      </c>
+      <c r="O36" s="6">
+        <v>869.20001220703125</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -2247,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.40000000596046448</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2259,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O37">
-        <v>867.24005126953125</v>
+        <v>867.84002685546875</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -2300,16 +2303,16 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>9.9999997764825821E-3</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O38">
-        <v>867.11993408203125</v>
+        <v>867.4000244140625</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -2341,22 +2344,22 @@
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.40000000596046448</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="K39">
         <v>2</v>
       </c>
       <c r="L39">
-        <v>2.9999999329447746E-2</v>
+        <v>9.9999997764825821E-3</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O39">
-        <v>866.24005126953125</v>
+        <v>867.11993408203125</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -2388,351 +2391,351 @@
         <v>1</v>
       </c>
       <c r="J40">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>4.9999997019767761E-2</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>22</v>
+      </c>
+      <c r="O40">
+        <v>862.5999755859375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>20</v>
+      </c>
+      <c r="B41" s="5">
+        <v>20</v>
+      </c>
+      <c r="C41" s="5">
+        <v>500</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5">
+        <v>25</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H41" s="5">
+        <v>50</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
+        <v>13</v>
+      </c>
+      <c r="O41" s="5">
+        <v>781.71990966796875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3">
+        <v>500</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
+        <v>25</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H42" s="3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3">
+        <v>500</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
+        <v>25</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H43" s="3">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2</v>
+      </c>
+      <c r="O43" s="3">
+        <v>854.0400390625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
+        <v>20</v>
+      </c>
+      <c r="B44" s="10">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10">
+        <v>500</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3</v>
+      </c>
+      <c r="F44" s="10">
+        <v>25</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H44" s="10">
+        <v>50</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <v>2</v>
+      </c>
+      <c r="L44" s="10">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="M44" s="10">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>8</v>
+      </c>
+      <c r="O44" s="10">
+        <v>851.17999267578125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3">
+        <v>500</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>25</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H45" s="3">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>4.9999997019767761E-2</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <v>11</v>
+      </c>
+      <c r="O45" s="3">
+        <v>848.20001220703125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3">
+        <v>500</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>25</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H46" s="3">
+        <v>50</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+      <c r="L46" s="3">
         <v>0.40000000596046448</v>
       </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>47</v>
-      </c>
-      <c r="O40">
-        <v>865.52001953125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>500</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>25</v>
-      </c>
-      <c r="G41">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H41">
-        <v>50</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>46</v>
-      </c>
-      <c r="O41">
-        <v>864.8800048828125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>500</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>25</v>
-      </c>
-      <c r="G42">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H42">
-        <v>50</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>4.9999997019767761E-2</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>22</v>
-      </c>
-      <c r="O42">
-        <v>862.5999755859375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>500</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>25</v>
-      </c>
-      <c r="G43">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
+        <v>846.5198974609375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
         <v>9.9999997764825821E-3</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>43</v>
-      </c>
-      <c r="O43">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>20</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44">
-        <v>500</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>25</v>
-      </c>
-      <c r="G44">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H44">
-        <v>50</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>1.9999999552965164E-2</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>45</v>
-      </c>
-      <c r="O44">
-        <v>860.47998046875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>20</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>500</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>25</v>
-      </c>
-      <c r="G45">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>46</v>
-      </c>
-      <c r="O45">
-        <v>857.25994873046875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>500</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>25</v>
-      </c>
-      <c r="G46">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H46">
-        <v>50</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>47</v>
-      </c>
-      <c r="O46">
-        <v>855.06005859375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="10">
-        <v>20</v>
-      </c>
-      <c r="B47" s="10">
-        <v>20</v>
-      </c>
-      <c r="C47" s="10">
-        <v>500</v>
-      </c>
-      <c r="D47" s="10">
-        <v>2</v>
-      </c>
-      <c r="E47" s="10">
-        <v>3</v>
-      </c>
-      <c r="F47" s="10">
-        <v>25</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H47" s="10">
-        <v>50</v>
-      </c>
-      <c r="I47" s="10">
-        <v>1</v>
-      </c>
-      <c r="J47" s="10">
-        <v>0</v>
-      </c>
-      <c r="K47" s="10">
-        <v>2</v>
-      </c>
-      <c r="L47" s="10">
-        <v>3.9999999105930328E-2</v>
-      </c>
-      <c r="M47" s="10">
-        <v>1</v>
-      </c>
-      <c r="N47" s="10">
-        <v>8</v>
-      </c>
-      <c r="O47" s="10">
-        <v>851.17999267578125</v>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>20</v>
+      </c>
+      <c r="O47">
+        <v>842.4599609375</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -2770,63 +2773,63 @@
         <v>2</v>
       </c>
       <c r="L48" s="3">
-        <v>4.9999997019767761E-2</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="M48" s="3">
         <v>1</v>
       </c>
       <c r="N48" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O48" s="3">
-        <v>848.20001220703125</v>
+        <v>842.24005126953125</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>20</v>
-      </c>
-      <c r="B49">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>500</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>25</v>
-      </c>
-      <c r="G49">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H49">
-        <v>50</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
+      <c r="A49" s="3">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>20</v>
+      </c>
+      <c r="C49" s="3">
+        <v>500</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3">
+        <v>25</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H49" s="3">
+        <v>50</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>9.9999997764825821E-3</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>20</v>
-      </c>
-      <c r="O49">
-        <v>842.4599609375</v>
+      <c r="K49" s="3">
+        <v>2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1.9999999552965164E-2</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>18</v>
+      </c>
+      <c r="O49" s="3">
+        <v>840.79998779296875</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -2864,68 +2867,68 @@
         <v>2</v>
       </c>
       <c r="L50" s="3">
-        <v>1.9999999552965164E-2</v>
+        <v>2.9999999329447746E-2</v>
       </c>
       <c r="M50" s="3">
         <v>1</v>
       </c>
       <c r="N50" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O50" s="3">
-        <v>840.79998779296875</v>
+        <v>835.1199951171875</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>20</v>
-      </c>
-      <c r="B51" s="3">
-        <v>20</v>
-      </c>
-      <c r="C51" s="3">
-        <v>500</v>
-      </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>3</v>
-      </c>
-      <c r="F51" s="3">
-        <v>25</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="H51" s="3">
-        <v>50</v>
-      </c>
-      <c r="I51" s="3">
-        <v>1</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="A51" s="5">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5">
+        <v>20</v>
+      </c>
+      <c r="C51" s="5">
+        <v>500</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5">
+        <v>25</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="H51" s="5">
+        <v>50</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5">
         <v>0</v>
       </c>
-      <c r="K51" s="3">
-        <v>2</v>
-      </c>
-      <c r="L51" s="3">
-        <v>2.9999999329447746E-2</v>
-      </c>
-      <c r="M51" s="3">
-        <v>1</v>
-      </c>
-      <c r="N51" s="3">
-        <v>15</v>
-      </c>
-      <c r="O51" s="3">
-        <v>835.1199951171875</v>
+      <c r="K51" s="5">
+        <v>2</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1</v>
+      </c>
+      <c r="N51" s="5">
+        <v>1</v>
+      </c>
+      <c r="O51" s="5">
+        <v>763.8199462890625</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O51">
-    <sortCondition ref="I2:I51"/>
+    <sortCondition descending="1" ref="J2:J51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17421,8 +17424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6754AFEC-2984-4615-A377-CD174422A65C}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
